--- a/input/dynamic_data/season_17/forecasting_method/average/argentina/forecast_point_GW7.xlsx
+++ b/input/dynamic_data/season_17/forecasting_method/average/argentina/forecast_point_GW7.xlsx
@@ -559,37 +559,37 @@
         <v>12.0</v>
       </c>
       <c r="B13" t="n">
-        <v>0.30959166671516664</v>
+        <v>0.0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.30959166671516664</v>
+        <v>0.0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.30959166671516664</v>
+        <v>0.0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.30959166671516664</v>
+        <v>0.0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.30959166671516664</v>
+        <v>0.0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.30959166671516664</v>
+        <v>0.0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.30959166671516664</v>
+        <v>0.0</v>
       </c>
       <c r="I13" t="n">
-        <v>0.30959166671516664</v>
+        <v>0.0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.30959166671516664</v>
+        <v>0.0</v>
       </c>
       <c r="K13" t="n">
-        <v>0.30959166671516664</v>
+        <v>0.0</v>
       </c>
       <c r="L13" t="n">
-        <v>0.30959166671516664</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="14">
@@ -4207,37 +4207,37 @@
         <v>108.0</v>
       </c>
       <c r="B109" t="n">
-        <v>1.8008881575300002</v>
+        <v>0.0</v>
       </c>
       <c r="C109" t="n">
-        <v>1.8008881575300002</v>
+        <v>0.0</v>
       </c>
       <c r="D109" t="n">
-        <v>1.8008881575300002</v>
+        <v>0.0</v>
       </c>
       <c r="E109" t="n">
-        <v>1.8008881575300002</v>
+        <v>0.0</v>
       </c>
       <c r="F109" t="n">
-        <v>1.8008881575300002</v>
+        <v>0.0</v>
       </c>
       <c r="G109" t="n">
-        <v>1.8008881575300002</v>
+        <v>0.0</v>
       </c>
       <c r="H109" t="n">
-        <v>1.8008881575300002</v>
+        <v>0.0</v>
       </c>
       <c r="I109" t="n">
-        <v>1.8008881575300002</v>
+        <v>0.0</v>
       </c>
       <c r="J109" t="n">
-        <v>1.8008881575300002</v>
+        <v>0.0</v>
       </c>
       <c r="K109" t="n">
-        <v>1.8008881575300002</v>
+        <v>0.0</v>
       </c>
       <c r="L109" t="n">
-        <v>1.8008881575300002</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="110">
@@ -6677,37 +6677,37 @@
         <v>173.0</v>
       </c>
       <c r="B174" t="n">
-        <v>5.2668</v>
+        <v>0.0</v>
       </c>
       <c r="C174" t="n">
-        <v>5.2668</v>
+        <v>0.0</v>
       </c>
       <c r="D174" t="n">
-        <v>5.2668</v>
+        <v>0.0</v>
       </c>
       <c r="E174" t="n">
-        <v>5.2668</v>
+        <v>0.0</v>
       </c>
       <c r="F174" t="n">
-        <v>5.2668</v>
+        <v>0.0</v>
       </c>
       <c r="G174" t="n">
-        <v>5.2668</v>
+        <v>0.0</v>
       </c>
       <c r="H174" t="n">
-        <v>5.2668</v>
+        <v>0.0</v>
       </c>
       <c r="I174" t="n">
-        <v>5.2668</v>
+        <v>0.0</v>
       </c>
       <c r="J174" t="n">
-        <v>5.2668</v>
+        <v>0.0</v>
       </c>
       <c r="K174" t="n">
-        <v>5.2668</v>
+        <v>0.0</v>
       </c>
       <c r="L174" t="n">
-        <v>5.2668</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="175">
@@ -9375,37 +9375,37 @@
         <v>244.0</v>
       </c>
       <c r="B245" t="n">
-        <v>1.9061000008819997</v>
+        <v>0.0</v>
       </c>
       <c r="C245" t="n">
-        <v>1.9061000008819997</v>
+        <v>0.0</v>
       </c>
       <c r="D245" t="n">
-        <v>1.9061000008819997</v>
+        <v>0.0</v>
       </c>
       <c r="E245" t="n">
-        <v>1.9061000008819997</v>
+        <v>0.0</v>
       </c>
       <c r="F245" t="n">
-        <v>1.9061000008819997</v>
+        <v>0.0</v>
       </c>
       <c r="G245" t="n">
-        <v>1.9061000008819997</v>
+        <v>0.0</v>
       </c>
       <c r="H245" t="n">
-        <v>1.9061000008819997</v>
+        <v>0.0</v>
       </c>
       <c r="I245" t="n">
-        <v>1.9061000008819997</v>
+        <v>0.0</v>
       </c>
       <c r="J245" t="n">
-        <v>1.9061000008819997</v>
+        <v>0.0</v>
       </c>
       <c r="K245" t="n">
-        <v>1.9061000008819997</v>
+        <v>0.0</v>
       </c>
       <c r="L245" t="n">
-        <v>1.9061000008819997</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="246">
@@ -10173,37 +10173,37 @@
         <v>265.0</v>
       </c>
       <c r="B266" t="n">
-        <v>2.3062236847160005</v>
+        <v>0.0</v>
       </c>
       <c r="C266" t="n">
-        <v>2.3062236847160005</v>
+        <v>0.0</v>
       </c>
       <c r="D266" t="n">
-        <v>2.3062236847160005</v>
+        <v>0.0</v>
       </c>
       <c r="E266" t="n">
-        <v>2.3062236847160005</v>
+        <v>0.0</v>
       </c>
       <c r="F266" t="n">
-        <v>2.3062236847160005</v>
+        <v>0.0</v>
       </c>
       <c r="G266" t="n">
-        <v>2.3062236847160005</v>
+        <v>0.0</v>
       </c>
       <c r="H266" t="n">
-        <v>2.3062236847160005</v>
+        <v>0.0</v>
       </c>
       <c r="I266" t="n">
-        <v>2.3062236847160005</v>
+        <v>0.0</v>
       </c>
       <c r="J266" t="n">
-        <v>2.3062236847160005</v>
+        <v>0.0</v>
       </c>
       <c r="K266" t="n">
-        <v>2.3062236847160005</v>
+        <v>0.0</v>
       </c>
       <c r="L266" t="n">
-        <v>2.3062236847160005</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="267">
@@ -10553,37 +10553,37 @@
         <v>275.0</v>
       </c>
       <c r="B276" t="n">
-        <v>0.33862500012249996</v>
+        <v>0.0</v>
       </c>
       <c r="C276" t="n">
-        <v>0.33862500012249996</v>
+        <v>0.0</v>
       </c>
       <c r="D276" t="n">
-        <v>0.33862500012249996</v>
+        <v>0.0</v>
       </c>
       <c r="E276" t="n">
-        <v>0.33862500012249996</v>
+        <v>0.0</v>
       </c>
       <c r="F276" t="n">
-        <v>0.33862500012249996</v>
+        <v>0.0</v>
       </c>
       <c r="G276" t="n">
-        <v>0.33862500012249996</v>
+        <v>0.0</v>
       </c>
       <c r="H276" t="n">
-        <v>0.33862500012249996</v>
+        <v>0.0</v>
       </c>
       <c r="I276" t="n">
-        <v>0.33862500012249996</v>
+        <v>0.0</v>
       </c>
       <c r="J276" t="n">
-        <v>0.33862500012249996</v>
+        <v>0.0</v>
       </c>
       <c r="K276" t="n">
-        <v>0.33862500012249996</v>
+        <v>0.0</v>
       </c>
       <c r="L276" t="n">
-        <v>0.33862500012249996</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="277">
@@ -13061,37 +13061,37 @@
         <v>341.0</v>
       </c>
       <c r="B342" t="n">
-        <v>1.2033333333333331</v>
+        <v>0.0</v>
       </c>
       <c r="C342" t="n">
-        <v>1.2033333333333331</v>
+        <v>0.0</v>
       </c>
       <c r="D342" t="n">
-        <v>1.2033333333333331</v>
+        <v>0.0</v>
       </c>
       <c r="E342" t="n">
-        <v>1.2033333333333331</v>
+        <v>0.0</v>
       </c>
       <c r="F342" t="n">
-        <v>1.2033333333333331</v>
+        <v>0.0</v>
       </c>
       <c r="G342" t="n">
-        <v>1.2033333333333331</v>
+        <v>0.0</v>
       </c>
       <c r="H342" t="n">
-        <v>1.2033333333333331</v>
+        <v>0.0</v>
       </c>
       <c r="I342" t="n">
-        <v>1.2033333333333331</v>
+        <v>0.0</v>
       </c>
       <c r="J342" t="n">
-        <v>1.2033333333333331</v>
+        <v>0.0</v>
       </c>
       <c r="K342" t="n">
-        <v>1.2033333333333331</v>
+        <v>0.0</v>
       </c>
       <c r="L342" t="n">
-        <v>1.2033333333333331</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="343">
@@ -14505,37 +14505,37 @@
         <v>379.0</v>
       </c>
       <c r="B380" t="n">
-        <v>0.7021184212349999</v>
+        <v>0.0</v>
       </c>
       <c r="C380" t="n">
-        <v>0.7021184212349999</v>
+        <v>0.0</v>
       </c>
       <c r="D380" t="n">
-        <v>0.7021184212349999</v>
+        <v>0.0</v>
       </c>
       <c r="E380" t="n">
-        <v>0.7021184212349999</v>
+        <v>0.0</v>
       </c>
       <c r="F380" t="n">
-        <v>0.7021184212349999</v>
+        <v>0.0</v>
       </c>
       <c r="G380" t="n">
-        <v>0.7021184212349999</v>
+        <v>0.0</v>
       </c>
       <c r="H380" t="n">
-        <v>0.7021184212349999</v>
+        <v>0.0</v>
       </c>
       <c r="I380" t="n">
-        <v>0.7021184212349999</v>
+        <v>0.0</v>
       </c>
       <c r="J380" t="n">
-        <v>0.7021184212349999</v>
+        <v>0.0</v>
       </c>
       <c r="K380" t="n">
-        <v>0.7021184212349999</v>
+        <v>0.0</v>
       </c>
       <c r="L380" t="n">
-        <v>0.7021184212349999</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="381">
@@ -14733,37 +14733,37 @@
         <v>385.0</v>
       </c>
       <c r="B386" t="n">
-        <v>0.5994333335293333</v>
+        <v>0.0</v>
       </c>
       <c r="C386" t="n">
-        <v>0.5994333335293333</v>
+        <v>0.0</v>
       </c>
       <c r="D386" t="n">
-        <v>0.5994333335293333</v>
+        <v>0.0</v>
       </c>
       <c r="E386" t="n">
-        <v>0.5994333335293333</v>
+        <v>0.0</v>
       </c>
       <c r="F386" t="n">
-        <v>0.5994333335293333</v>
+        <v>0.0</v>
       </c>
       <c r="G386" t="n">
-        <v>0.5994333335293333</v>
+        <v>0.0</v>
       </c>
       <c r="H386" t="n">
-        <v>0.5994333335293333</v>
+        <v>0.0</v>
       </c>
       <c r="I386" t="n">
-        <v>0.5994333335293333</v>
+        <v>0.0</v>
       </c>
       <c r="J386" t="n">
-        <v>0.5994333335293333</v>
+        <v>0.0</v>
       </c>
       <c r="K386" t="n">
-        <v>0.5994333335293333</v>
+        <v>0.0</v>
       </c>
       <c r="L386" t="n">
-        <v>0.5994333335293333</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="387">
@@ -16329,37 +16329,37 @@
         <v>427.0</v>
       </c>
       <c r="B428" t="n">
-        <v>1.7917236840300002</v>
+        <v>0.0</v>
       </c>
       <c r="C428" t="n">
-        <v>1.7917236840300002</v>
+        <v>0.0</v>
       </c>
       <c r="D428" t="n">
-        <v>1.7917236840300002</v>
+        <v>0.0</v>
       </c>
       <c r="E428" t="n">
-        <v>1.7917236840300002</v>
+        <v>0.0</v>
       </c>
       <c r="F428" t="n">
-        <v>1.7917236840300002</v>
+        <v>0.0</v>
       </c>
       <c r="G428" t="n">
-        <v>1.7917236840300002</v>
+        <v>0.0</v>
       </c>
       <c r="H428" t="n">
-        <v>1.7917236840300002</v>
+        <v>0.0</v>
       </c>
       <c r="I428" t="n">
-        <v>1.7917236840300002</v>
+        <v>0.0</v>
       </c>
       <c r="J428" t="n">
-        <v>1.7917236840300002</v>
+        <v>0.0</v>
       </c>
       <c r="K428" t="n">
-        <v>1.7917236840300002</v>
+        <v>0.0</v>
       </c>
       <c r="L428" t="n">
-        <v>1.7917236840300002</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="429">
@@ -18419,37 +18419,37 @@
         <v>482.0</v>
       </c>
       <c r="B483" t="n">
-        <v>0.317674999903</v>
+        <v>0.0</v>
       </c>
       <c r="C483" t="n">
-        <v>0.317674999903</v>
+        <v>0.0</v>
       </c>
       <c r="D483" t="n">
-        <v>0.317674999903</v>
+        <v>0.0</v>
       </c>
       <c r="E483" t="n">
-        <v>0.317674999903</v>
+        <v>0.0</v>
       </c>
       <c r="F483" t="n">
-        <v>0.317674999903</v>
+        <v>0.0</v>
       </c>
       <c r="G483" t="n">
-        <v>0.317674999903</v>
+        <v>0.0</v>
       </c>
       <c r="H483" t="n">
-        <v>0.317674999903</v>
+        <v>0.0</v>
       </c>
       <c r="I483" t="n">
-        <v>0.317674999903</v>
+        <v>0.0</v>
       </c>
       <c r="J483" t="n">
-        <v>0.317674999903</v>
+        <v>0.0</v>
       </c>
       <c r="K483" t="n">
-        <v>0.317674999903</v>
+        <v>0.0</v>
       </c>
       <c r="L483" t="n">
-        <v>0.317674999903</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="484">
@@ -18989,37 +18989,37 @@
         <v>497.0</v>
       </c>
       <c r="B498" t="n">
-        <v>1.6046250007424998</v>
+        <v>0.0</v>
       </c>
       <c r="C498" t="n">
-        <v>1.6046250007424998</v>
+        <v>0.0</v>
       </c>
       <c r="D498" t="n">
-        <v>1.6046250007424998</v>
+        <v>0.0</v>
       </c>
       <c r="E498" t="n">
-        <v>1.6046250007424998</v>
+        <v>0.0</v>
       </c>
       <c r="F498" t="n">
-        <v>1.6046250007424998</v>
+        <v>0.0</v>
       </c>
       <c r="G498" t="n">
-        <v>1.6046250007424998</v>
+        <v>0.0</v>
       </c>
       <c r="H498" t="n">
-        <v>1.6046250007424998</v>
+        <v>0.0</v>
       </c>
       <c r="I498" t="n">
-        <v>1.6046250007424998</v>
+        <v>0.0</v>
       </c>
       <c r="J498" t="n">
-        <v>1.6046250007424998</v>
+        <v>0.0</v>
       </c>
       <c r="K498" t="n">
-        <v>1.6046250007424998</v>
+        <v>0.0</v>
       </c>
       <c r="L498" t="n">
-        <v>1.6046250007424998</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="499">
@@ -19521,37 +19521,37 @@
         <v>511.0</v>
       </c>
       <c r="B512" t="n">
-        <v>1.361168420836</v>
+        <v>0.0</v>
       </c>
       <c r="C512" t="n">
-        <v>1.361168420836</v>
+        <v>0.0</v>
       </c>
       <c r="D512" t="n">
-        <v>1.361168420836</v>
+        <v>0.0</v>
       </c>
       <c r="E512" t="n">
-        <v>1.361168420836</v>
+        <v>0.0</v>
       </c>
       <c r="F512" t="n">
-        <v>1.361168420836</v>
+        <v>0.0</v>
       </c>
       <c r="G512" t="n">
-        <v>1.361168420836</v>
+        <v>0.0</v>
       </c>
       <c r="H512" t="n">
-        <v>1.361168420836</v>
+        <v>0.0</v>
       </c>
       <c r="I512" t="n">
-        <v>1.361168420836</v>
+        <v>0.0</v>
       </c>
       <c r="J512" t="n">
-        <v>1.361168420836</v>
+        <v>0.0</v>
       </c>
       <c r="K512" t="n">
-        <v>1.361168420836</v>
+        <v>0.0</v>
       </c>
       <c r="L512" t="n">
-        <v>1.361168420836</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="513">
@@ -20395,37 +20395,37 @@
         <v>534.0</v>
       </c>
       <c r="B535" t="n">
-        <v>4.659513158916</v>
+        <v>0.0</v>
       </c>
       <c r="C535" t="n">
-        <v>4.659513158916</v>
+        <v>0.0</v>
       </c>
       <c r="D535" t="n">
-        <v>4.659513158916</v>
+        <v>0.0</v>
       </c>
       <c r="E535" t="n">
-        <v>4.659513158916</v>
+        <v>0.0</v>
       </c>
       <c r="F535" t="n">
-        <v>4.659513158916</v>
+        <v>0.0</v>
       </c>
       <c r="G535" t="n">
-        <v>4.659513158916</v>
+        <v>0.0</v>
       </c>
       <c r="H535" t="n">
-        <v>4.659513158916</v>
+        <v>0.0</v>
       </c>
       <c r="I535" t="n">
-        <v>4.659513158916</v>
+        <v>0.0</v>
       </c>
       <c r="J535" t="n">
-        <v>4.659513158916</v>
+        <v>0.0</v>
       </c>
       <c r="K535" t="n">
-        <v>4.659513158916</v>
+        <v>0.0</v>
       </c>
       <c r="L535" t="n">
-        <v>4.659513158916</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="536">
@@ -20661,37 +20661,37 @@
         <v>541.0</v>
       </c>
       <c r="B542" t="n">
-        <v>6.351892107561</v>
+        <v>0.0</v>
       </c>
       <c r="C542" t="n">
-        <v>6.351892107561</v>
+        <v>0.0</v>
       </c>
       <c r="D542" t="n">
-        <v>6.351892107561</v>
+        <v>0.0</v>
       </c>
       <c r="E542" t="n">
-        <v>6.351892107561</v>
+        <v>0.0</v>
       </c>
       <c r="F542" t="n">
-        <v>6.351892107561</v>
+        <v>0.0</v>
       </c>
       <c r="G542" t="n">
-        <v>6.351892107561</v>
+        <v>0.0</v>
       </c>
       <c r="H542" t="n">
-        <v>6.351892107561</v>
+        <v>0.0</v>
       </c>
       <c r="I542" t="n">
-        <v>6.351892107561</v>
+        <v>0.0</v>
       </c>
       <c r="J542" t="n">
-        <v>6.351892107561</v>
+        <v>0.0</v>
       </c>
       <c r="K542" t="n">
-        <v>6.351892107561</v>
+        <v>0.0</v>
       </c>
       <c r="L542" t="n">
-        <v>6.351892107561</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="543">
@@ -20737,37 +20737,37 @@
         <v>543.0</v>
       </c>
       <c r="B544" t="n">
-        <v>6.943749998148332</v>
+        <v>0.0</v>
       </c>
       <c r="C544" t="n">
-        <v>6.943749998148332</v>
+        <v>0.0</v>
       </c>
       <c r="D544" t="n">
-        <v>6.943749998148332</v>
+        <v>0.0</v>
       </c>
       <c r="E544" t="n">
-        <v>6.943749998148332</v>
+        <v>0.0</v>
       </c>
       <c r="F544" t="n">
-        <v>6.943749998148332</v>
+        <v>0.0</v>
       </c>
       <c r="G544" t="n">
-        <v>6.943749998148332</v>
+        <v>0.0</v>
       </c>
       <c r="H544" t="n">
-        <v>6.943749998148332</v>
+        <v>0.0</v>
       </c>
       <c r="I544" t="n">
-        <v>6.943749998148332</v>
+        <v>0.0</v>
       </c>
       <c r="J544" t="n">
-        <v>6.943749998148332</v>
+        <v>0.0</v>
       </c>
       <c r="K544" t="n">
-        <v>6.943749998148332</v>
+        <v>0.0</v>
       </c>
       <c r="L544" t="n">
-        <v>6.943749998148332</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="545">
@@ -21421,37 +21421,37 @@
         <v>561.0</v>
       </c>
       <c r="B562" t="n">
-        <v>1.5041666666666664</v>
+        <v>0.0</v>
       </c>
       <c r="C562" t="n">
-        <v>1.5041666666666664</v>
+        <v>0.0</v>
       </c>
       <c r="D562" t="n">
-        <v>1.5041666666666664</v>
+        <v>0.0</v>
       </c>
       <c r="E562" t="n">
-        <v>1.5041666666666664</v>
+        <v>0.0</v>
       </c>
       <c r="F562" t="n">
-        <v>1.5041666666666664</v>
+        <v>0.0</v>
       </c>
       <c r="G562" t="n">
-        <v>1.5041666666666664</v>
+        <v>0.0</v>
       </c>
       <c r="H562" t="n">
-        <v>1.5041666666666664</v>
+        <v>0.0</v>
       </c>
       <c r="I562" t="n">
-        <v>1.5041666666666664</v>
+        <v>0.0</v>
       </c>
       <c r="J562" t="n">
-        <v>1.5041666666666664</v>
+        <v>0.0</v>
       </c>
       <c r="K562" t="n">
-        <v>1.5041666666666664</v>
+        <v>0.0</v>
       </c>
       <c r="L562" t="n">
-        <v>1.5041666666666664</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="563">
@@ -21801,37 +21801,37 @@
         <v>571.0</v>
       </c>
       <c r="B572" t="n">
-        <v>0.69502631597</v>
+        <v>0.0</v>
       </c>
       <c r="C572" t="n">
-        <v>0.69502631597</v>
+        <v>0.0</v>
       </c>
       <c r="D572" t="n">
-        <v>0.69502631597</v>
+        <v>0.0</v>
       </c>
       <c r="E572" t="n">
-        <v>0.69502631597</v>
+        <v>0.0</v>
       </c>
       <c r="F572" t="n">
-        <v>0.69502631597</v>
+        <v>0.0</v>
       </c>
       <c r="G572" t="n">
-        <v>0.69502631597</v>
+        <v>0.0</v>
       </c>
       <c r="H572" t="n">
-        <v>0.69502631597</v>
+        <v>0.0</v>
       </c>
       <c r="I572" t="n">
-        <v>0.69502631597</v>
+        <v>0.0</v>
       </c>
       <c r="J572" t="n">
-        <v>0.69502631597</v>
+        <v>0.0</v>
       </c>
       <c r="K572" t="n">
-        <v>0.69502631597</v>
+        <v>0.0</v>
       </c>
       <c r="L572" t="n">
-        <v>0.69502631597</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="573">
@@ -21839,37 +21839,37 @@
         <v>572.0</v>
       </c>
       <c r="B573" t="n">
-        <v>0.33687500008749993</v>
+        <v>0.0</v>
       </c>
       <c r="C573" t="n">
-        <v>0.33687500008749993</v>
+        <v>0.0</v>
       </c>
       <c r="D573" t="n">
-        <v>0.33687500008749993</v>
+        <v>0.0</v>
       </c>
       <c r="E573" t="n">
-        <v>0.33687500008749993</v>
+        <v>0.0</v>
       </c>
       <c r="F573" t="n">
-        <v>0.33687500008749993</v>
+        <v>0.0</v>
       </c>
       <c r="G573" t="n">
-        <v>0.33687500008749993</v>
+        <v>0.0</v>
       </c>
       <c r="H573" t="n">
-        <v>0.33687500008749993</v>
+        <v>0.0</v>
       </c>
       <c r="I573" t="n">
-        <v>0.33687500008749993</v>
+        <v>0.0</v>
       </c>
       <c r="J573" t="n">
-        <v>0.33687500008749993</v>
+        <v>0.0</v>
       </c>
       <c r="K573" t="n">
-        <v>0.33687500008749993</v>
+        <v>0.0</v>
       </c>
       <c r="L573" t="n">
-        <v>0.33687500008749993</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="574">
